--- a/src/test/java/com/cham/2025년 대전시장 5월까지 업무추진비 업로드.xlsx
+++ b/src/test/java/com/cham/2025년 대전시장 5월까지 업무추진비 업로드.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlglx\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="389">
   <si>
     <t>사용자</t>
   </si>
@@ -1223,6 +1223,363 @@
   </si>
   <si>
     <t>대전 중구 목중로20번길 54</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>둔산중로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 26</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>둔산로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 57</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>둔산중로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 26</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유성구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엑스포로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 244-9</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>둔산남로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>98-14</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1234,7 +1591,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="178" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1276,6 +1633,13 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1876,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7284,7 +7648,7 @@
         <v>58</v>
       </c>
       <c r="H123" s="24" t="s">
-        <v>313</v>
+        <v>385</v>
       </c>
       <c r="I123" s="16" t="s">
         <v>244</v>
@@ -7328,7 +7692,7 @@
         <v>26</v>
       </c>
       <c r="H124" s="24" t="s">
-        <v>30</v>
+        <v>384</v>
       </c>
       <c r="I124" s="16" t="s">
         <v>245</v>
@@ -8823,7 +9187,9 @@
       <c r="G158" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H158" s="29"/>
+      <c r="H158" s="29" t="s">
+        <v>386</v>
+      </c>
       <c r="I158" s="16" t="s">
         <v>278</v>
       </c>
@@ -8909,7 +9275,9 @@
       <c r="G160" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H160" s="30"/>
+      <c r="H160" s="30" t="s">
+        <v>387</v>
+      </c>
       <c r="I160" s="16" t="s">
         <v>280</v>
       </c>
@@ -9127,7 +9495,9 @@
       <c r="G165" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H165" s="29"/>
+      <c r="H165" s="29" t="s">
+        <v>388</v>
+      </c>
       <c r="I165" s="16" t="s">
         <v>285</v>
       </c>
